--- a/Team-Data/2011-12/4-23-2011-12.xlsx
+++ b/Team-Data/2011-12/4-23-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -938,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -956,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="n">
-        <v>0.109</v>
+        <v>0.111</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="J4" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
       <c r="L4" t="n">
         <v>3.9</v>
@@ -1060,31 +1127,31 @@
         <v>13.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.293</v>
+        <v>0.294</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
         <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R4" t="n">
         <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T4" t="n">
         <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>6.1</v>
@@ -1096,19 +1163,19 @@
         <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.9</v>
+        <v>-13.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
         <v>27</v>
@@ -1162,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1311,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1341,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1461,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J6" t="n">
         <v>81.2</v>
@@ -1418,19 +1485,19 @@
         <v>0.423</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.717</v>
@@ -1439,19 +1506,19 @@
         <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T6" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U6" t="n">
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>4</v>
@@ -1460,19 +1527,19 @@
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1487,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1496,13 +1563,13 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1517,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -1669,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="AI7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>18</v>
       </c>
       <c r="AL7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1884,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.369</v>
+        <v>0.375</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1961,31 +2028,31 @@
         <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
         <v>13.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
         <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T9" t="n">
         <v>40.2</v>
@@ -2000,25 +2067,25 @@
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="AC9" t="n">
         <v>-5.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -2030,13 +2097,13 @@
         <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2048,10 +2115,10 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>14</v>
@@ -2060,7 +2127,7 @@
         <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2078,19 +2145,19 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
         <v>16</v>
       </c>
       <c r="BB9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
@@ -2504,67 +2571,67 @@
         <v>35.7</v>
       </c>
       <c r="J12" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>16.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P12" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S12" t="n">
         <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
         <v>18.6</v>
       </c>
       <c r="V12" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC12" t="n">
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2606,13 +2673,13 @@
         <v>3</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2770,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
@@ -2794,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -2812,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2952,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>19</v>
@@ -2982,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3000,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="BB14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.615</v>
+        <v>0.609</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3062,13 +3129,13 @@
         <v>12.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.329</v>
+        <v>0.328</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P15" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
         <v>0.758</v>
@@ -3089,7 +3156,7 @@
         <v>14.5</v>
       </c>
       <c r="W15" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>5.2</v>
@@ -3104,16 +3171,16 @@
         <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3122,7 +3189,7 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3143,13 +3210,13 @@
         <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
@@ -3164,7 +3231,7 @@
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3331,16 +3398,16 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS16" t="n">
         <v>12</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>19</v>
@@ -3358,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>8</v>
@@ -3367,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="BC16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
         <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.484</v>
+        <v>0.476</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6.7</v>
@@ -3429,10 +3496,10 @@
         <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P17" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.777</v>
@@ -3447,34 +3514,34 @@
         <v>42.2</v>
       </c>
       <c r="U17" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V17" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z17" t="n">
         <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3501,22 +3568,22 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>21</v>
@@ -3540,13 +3607,13 @@
         <v>5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>22</v>
@@ -3704,7 +3771,7 @@
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3716,7 +3783,7 @@
         <v>26</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J19" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.427</v>
       </c>
       <c r="L19" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P19" t="n">
         <v>21.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R19" t="n">
         <v>11.9</v>
@@ -3811,13 +3878,13 @@
         <v>40.4</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
         <v>4</v>
@@ -3829,16 +3896,16 @@
         <v>19.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3862,13 +3929,13 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>11</v>
@@ -3889,25 +3956,25 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
         <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4214,7 +4281,7 @@
         <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
@@ -4253,7 +4320,7 @@
         <v>17</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -4578,10 +4645,10 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
@@ -4626,7 +4693,7 @@
         <v>25</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
         <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.531</v>
+        <v>0.524</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J24" t="n">
         <v>83.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
         <v>5.3</v>
@@ -4709,25 +4776,25 @@
         <v>18.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R24" t="n">
         <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U24" t="n">
         <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="W24" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>5.2</v>
@@ -4742,34 +4809,34 @@
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
@@ -4790,13 +4857,13 @@
         <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4811,7 +4878,7 @@
         <v>13</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>17</v>
@@ -4969,7 +5036,7 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.431</v>
+        <v>0.438</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,37 +5119,37 @@
         <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N26" t="n">
         <v>0.348</v>
       </c>
       <c r="O26" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
@@ -5103,16 +5170,16 @@
         <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,16 +5191,16 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK26" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5142,13 +5209,13 @@
         <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5175,16 +5242,16 @@
         <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
         <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5361,22 @@
         <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH27" t="n">
         <v>24</v>
       </c>
-      <c r="AG27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>23</v>
-      </c>
       <c r="AI27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5360,16 +5427,16 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
         <v>8</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J28" t="n">
         <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.396</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
         <v>16.1</v>
@@ -5443,49 +5510,49 @@
         <v>10.2</v>
       </c>
       <c r="S28" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T28" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>1</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>16</v>
@@ -5512,7 +5579,7 @@
         <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>20</v>
@@ -5521,22 +5588,22 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
         <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
         <v>15</v>
@@ -5551,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,7 +5665,7 @@
         <v>34.3</v>
       </c>
       <c r="J29" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K29" t="n">
         <v>0.44</v>
@@ -5607,16 +5674,16 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O29" t="n">
         <v>16.5</v>
       </c>
       <c r="P29" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q29" t="n">
         <v>0.769</v>
@@ -5625,16 +5692,16 @@
         <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
@@ -5646,19 +5713,19 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5670,10 +5737,10 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
@@ -5682,7 +5749,7 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
@@ -5694,25 +5761,25 @@
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>12</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
@@ -5730,10 +5797,10 @@
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5888,7 +5955,7 @@
         <v>15</v>
       </c>
       <c r="AT30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU30" t="n">
         <v>11</v>
@@ -5912,7 +5979,7 @@
         <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.281</v>
+        <v>0.27</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M31" t="n">
         <v>16.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.323</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
         <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
         <v>41.5</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
         <v>6.4</v>
@@ -6013,16 +6080,16 @@
         <v>21.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.7</v>
+        <v>-6.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,13 +6104,13 @@
         <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,7 +6122,7 @@
         <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
@@ -6064,7 +6131,7 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
@@ -6097,7 +6164,7 @@
         <v>24</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-23-2011-12</t>
+          <t>2012-04-23</t>
         </is>
       </c>
     </row>
